--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -451,211 +451,279 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>007107</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>007108</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>007340</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>南方科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>16.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007340</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方科技创新混合A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007341</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方科技创新混合C</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1070,25 +1278,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>81.17</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>6.04</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>007341</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>南方科技创新混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1192,15 +1440,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.36</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1294,25 +1582,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>82.62</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -1605,6 +1605,592 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2197,4 +2198,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2824,4 +2825,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2833,7 +2834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2844,17 +2845,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2864,14 +2885,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.62</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2880,14 +2923,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.21</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2896,14 +2961,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.91</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2912,13 +2999,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3648,7 +3649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,17 +3660,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3679,14 +3700,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.960000000000001</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3695,14 +3738,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.62</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3711,14 +3776,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.21</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3727,14 +3814,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.91</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3743,13 +3852,963 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0283</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9845</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4691,7 +4692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4702,17 +4703,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4722,14 +4743,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.05</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4738,14 +4781,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.960000000000001</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4754,14 +4819,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.62</v>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4770,14 +4857,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.21</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4786,14 +4895,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.91</v>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4802,13 +4933,599 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>8.16</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>12.05</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>8.960000000000001</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>4.62</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.21</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>6.91</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -600,6 +617,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4803</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8052</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2341,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3155,7 +4442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3781,7 +5068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4367,7 +5654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5252,7 +6539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00728-中国电信.xlsx
+++ b/数据整理/stocks/港股/00728-中国电信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>11.84</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>8.16</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>12.05</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>8.960000000000001</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>4.62</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.21</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>6.91</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,312 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +916,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1886,7 +3227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2586,7 +3927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3628,7 +4969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4442,7 +5783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5068,7 +6409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5654,7 +6995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6537,286 +7878,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9136</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0904</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>